--- a/docs/GráficasComparativas.xlsx
+++ b/docs/GráficasComparativas.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvigl\Dropbox\Tec de Monterrey\ITC\Quinto Semestre\Análisis y diseño de algoritmos\Tercer parcial\Final Project\Segundo Intento\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvigl\Dropbox\Tec de Monterrey\ITC\Quinto Semestre\Análisis y diseño de algoritmos\Tercer parcial\Final Project\First Attempt\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13856222-B5E1-4B39-8DCC-192BD55BABA9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3733BBA-4C52-43FC-B26B-F1FEB3B1D9C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{582CF3D1-06BC-4A09-8E59-15D49EA646FC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Secuencial</t>
   </si>
@@ -53,13 +53,37 @@
   <si>
     <t>Paralelo</t>
   </si>
+  <si>
+    <t>Threads</t>
+  </si>
+  <si>
+    <t>Tiempo de ejecucion</t>
+  </si>
+  <si>
+    <t>Opciones de balanceo</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>Guided</t>
+  </si>
+  <si>
+    <t>Static</t>
+  </si>
+  <si>
+    <t>Dynamic</t>
+  </si>
+  <si>
+    <t>Tiempo</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -115,10 +139,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -242,6 +266,63 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$2:$B$6</c:f>
@@ -322,6 +403,63 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Sheet1!$B$2:$B$6</c:f>
@@ -352,19 +490,19 @@
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.5000000000000001E-2</c:v>
+                  <c:v>4.0000000000000001E-8</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.01</c:v>
+                  <c:v>4.9999999999999998E-8</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.04</c:v>
+                  <c:v>5.9999999999999995E-8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.01</c:v>
+                  <c:v>4.9999999999999998E-8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.05</c:v>
+                  <c:v>5.9999999999999995E-8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -578,7 +716,888 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Tiempo de ejecucion modificando #</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t> de CPU</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo de ejecucion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$19:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$B$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2.9999999999999997E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.5999999999999995E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.0000000000000007E-5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0000000000000001E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-88FC-4449-8599-1A32B48ECC2D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="454468424"/>
+        <c:axId val="454471704"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="454468424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454471704"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="454471704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="454468424"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Tiempo de ejecución</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> modificando o</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>pciones de balanceo</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$M$2:$M$5</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Auto</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Guided</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Static</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dynamic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.9999999999999999E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9999999999999998E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0000000000000002E-4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9999999999999999E-4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6047-4D0E-AFC0-C82334DFAD35}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="453111688"/>
+        <c:axId val="453112016"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="453111688"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453112016"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="453112016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="453111688"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1134,20 +2153,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>155575</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>623887</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>73025</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>155575</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>187325</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>182562</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1167,6 +3218,78 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>136524</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>98424</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9FF2E461-3748-4996-95A9-073FFD162E56}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>305594</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>65087</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>119061</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85062B92-B614-424F-ABEF-452C58E450A0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1472,10 +3595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB592E2A-C99D-4CC8-BD2C-3A533BA6C32E}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -1483,15 +3606,21 @@
     <col min="2" max="2" width="11.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16" thickBot="1">
+    <row r="1" spans="1:14" ht="16" thickBot="1">
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
+      <c r="M1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N1" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="16" thickBot="1">
+    <row r="2" spans="1:14" ht="16" thickBot="1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1502,10 +3631,16 @@
         <v>0.02</v>
       </c>
       <c r="D2" s="3">
-        <v>2.5000000000000001E-2</v>
+        <v>4.0000000000000001E-8</v>
+      </c>
+      <c r="M2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N2">
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="16" thickBot="1">
+    <row r="3" spans="1:14" ht="16" thickBot="1">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -1514,10 +3649,16 @@
         <v>0</v>
       </c>
       <c r="D3" s="3">
-        <v>0.01</v>
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="M3" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3">
+        <v>8.9999999999999998E-4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="16" thickBot="1">
+    <row r="4" spans="1:14" ht="16" thickBot="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -1526,10 +3667,16 @@
         <v>2E-3</v>
       </c>
       <c r="D4" s="3">
-        <v>0.04</v>
+        <v>5.9999999999999995E-8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4">
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="16" thickBot="1">
+    <row r="5" spans="1:14" ht="16" thickBot="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -1538,10 +3685,16 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="D5" s="3">
-        <v>0.01</v>
+        <v>4.9999999999999998E-8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>13</v>
+      </c>
+      <c r="N5">
+        <v>6.9999999999999999E-4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="16" thickBot="1">
+    <row r="6" spans="1:14" ht="16" thickBot="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -1550,28 +3703,84 @@
         <v>2.7E-2</v>
       </c>
       <c r="D6" s="3">
-        <v>0.05</v>
+        <v>5.9999999999999995E-8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="16" thickBot="1">
+    <row r="7" spans="1:14" ht="16" thickBot="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:4" ht="16" thickBot="1">
+    <row r="8" spans="1:14" ht="16" thickBot="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
     </row>
-    <row r="9" spans="1:4" ht="16" thickBot="1">
+    <row r="9" spans="1:14" ht="16" thickBot="1">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
     </row>
-    <row r="10" spans="1:4" ht="16" thickBot="1">
+    <row r="10" spans="1:14" ht="16" thickBot="1">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
     </row>
-    <row r="11" spans="1:4" ht="16" thickBot="1">
+    <row r="11" spans="1:14" ht="16" thickBot="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>7</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>8.8999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>5.5999999999999995E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22">
+        <v>4</v>
+      </c>
+      <c r="B22">
+        <v>8.0000000000000007E-5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23">
+        <v>8</v>
+      </c>
+      <c r="B23">
+        <v>2.3E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24">
+        <v>16</v>
+      </c>
+      <c r="B24">
+        <v>6.0000000000000001E-3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/GráficasComparativas.xlsx
+++ b/docs/GráficasComparativas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvigl\Dropbox\Tec de Monterrey\ITC\Quinto Semestre\Análisis y diseño de algoritmos\Tercer parcial\Final Project\First Attempt\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3733BBA-4C52-43FC-B26B-F1FEB3B1D9C5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02F3932-25AF-4B63-9861-BD70E6F9A268}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{582CF3D1-06BC-4A09-8E59-15D49EA646FC}"/>
   </bookViews>
@@ -912,9 +912,6 @@
                 <c:pt idx="4">
                   <c:v>8</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>16</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -937,10 +934,7 @@
                   <c:v>8.0000000000000007E-5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3E-3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6.0000000000000001E-3</c:v>
+                  <c:v>2.3000000000000001E-4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3595,10 +3589,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB592E2A-C99D-4CC8-BD2C-3A533BA6C32E}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -3771,15 +3765,7 @@
         <v>8</v>
       </c>
       <c r="B23">
-        <v>2.3E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>16</v>
-      </c>
-      <c r="B24">
-        <v>6.0000000000000001E-3</v>
+        <v>2.3000000000000001E-4</v>
       </c>
     </row>
   </sheetData>

--- a/docs/GráficasComparativas.xlsx
+++ b/docs/GráficasComparativas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvigl\Dropbox\Tec de Monterrey\ITC\Quinto Semestre\Análisis y diseño de algoritmos\Tercer parcial\Final Project\First Attempt\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F02F3932-25AF-4B63-9861-BD70E6F9A268}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994BAB09-7482-4B31-976F-0A6F9E95C0EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{582CF3D1-06BC-4A09-8E59-15D49EA646FC}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="19">
   <si>
     <t>Secuencial</t>
   </si>
@@ -75,7 +75,19 @@
     <t>Dynamic</t>
   </si>
   <si>
-    <t>Tiempo</t>
+    <t>Modo AUTO</t>
+  </si>
+  <si>
+    <t>Modo Guided</t>
+  </si>
+  <si>
+    <t>Modo Static</t>
+  </si>
+  <si>
+    <t>Modo Dynamic</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
   </si>
 </sst>
 </file>
@@ -85,7 +97,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -801,7 +813,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$B$18</c:f>
+              <c:f>Sheet1!$B$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -893,7 +905,7 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$19:$A$24</c:f>
+              <c:f>Sheet1!$A$9:$A$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -917,7 +929,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$19:$B$24</c:f>
+              <c:f>Sheet1!$B$9:$B$14</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
@@ -1160,16 +1172,8 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Tiempo de ejecución</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> modificando o</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>pciones de balanceo</a:t>
+              <a:rPr lang="es-MX"/>
+              <a:t>Modo Auto</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1214,11 +1218,2010 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$1</c:f>
+              <c:f>Sheet1!$B$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Tiempo</c:v>
+                  <c:v>Secuencial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$17:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6.6000000000000003E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C384-4741-A56B-3DDC3EE42C54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paralelo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$17:$C$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.5999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.24E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.7500000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.6000000000000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C384-4741-A56B-3DDC3EE42C54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="464032536"/>
+        <c:axId val="464032208"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="464032536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="464032208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="464032208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="464032536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Modo Static</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Secuencial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$28:$E$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.8999999999999999E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.4999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.5999999999999992E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8DCF-429F-9D1A-799821F44FDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paralelo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$28:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.4999999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.3E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.4999999999999997E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8DCF-429F-9D1A-799821F44FDA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="464039096"/>
+        <c:axId val="464039424"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="464039096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="464039424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="464039424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="464039096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Modo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t> Dynamic</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Secuencial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$28:$B$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3.3E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.7000000000000003E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.3999999999999998E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.7000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2994-4B9A-83E8-155F588B70CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paralelo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$28:$C$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9.8000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.89E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.78E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2994-4B9A-83E8-155F588B70CE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="455549616"/>
+        <c:axId val="455546992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="455549616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455546992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="455546992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="455549616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-MX"/>
+              <a:t>Modo</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-MX" baseline="0"/>
+              <a:t> Guided</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Secuencial</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$17:$E$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.2E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.43559999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0999999999999998E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.13250000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA11-43EA-BF7C-FE7523B05F5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paralelo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$17:$F$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13950000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.24E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.6639999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FA11-43EA-BF7C-FE7523B05F5A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="462392448"/>
+        <c:axId val="462397696"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="462392448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462397696"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="462397696"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="462392448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-MX"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-MX"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Secuencial</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1294,7 +3297,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet1!$M$2:$M$5</c:f>
+              <c:f>Sheet1!$B$36:$B$39</c:f>
               <c:strCache>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
@@ -1314,21 +3317,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$N$2:$N$5</c:f>
+              <c:f>Sheet1!$C$36:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.9999999999999999E-4</c:v>
+                  <c:v>3.7660000000000006E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.9999999999999998E-4</c:v>
+                  <c:v>0.22422</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.0000000000000002E-4</c:v>
+                  <c:v>3.9900000000000005E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.9999999999999999E-4</c:v>
+                  <c:v>3.628E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1336,7 +3339,138 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6047-4D0E-AFC0-C82334DFAD35}"/>
+              <c16:uniqueId val="{00000000-11BE-4195-B156-5D4C032D6D79}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$35</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Paralelo</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-MX"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$36:$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Auto</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Guided</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Static</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Dynamic</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$36:$D$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.0779999999999997E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.10210800000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.85E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.9340000000000009E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-11BE-4195-B156-5D4C032D6D79}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1349,11 +3483,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="453111688"/>
-        <c:axId val="453112016"/>
+        <c:axId val="462390480"/>
+        <c:axId val="462392776"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="453111688"/>
+        <c:axId val="462390480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1396,7 +3530,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453112016"/>
+        <c:crossAx val="462392776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1404,7 +3538,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="453112016"/>
+        <c:axId val="462392776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1455,7 +3589,7 @@
             <a:endParaRPr lang="es-MX"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="453111688"/>
+        <c:crossAx val="462390480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1467,6 +3601,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-MX"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1631,6 +3796,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
@@ -3179,20 +5504,2084 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>623887</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>163512</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>15875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>128587</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>182562</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>636587</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3219,16 +7608,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>136524</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>98424</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>88899</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>50799</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>628649</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>581024</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>120649</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3255,23 +7644,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>305594</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>65087</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>136260</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>119061</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>634999</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{85062B92-B614-424F-ABEF-452C58E450A0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5FD481C-E703-44B8-8F3A-DA80EC22BAD6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3284,6 +7673,150 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>158749</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{223098EC-5507-4921-8D42-3713B5F3FDAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>148165</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>158750</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{566CDEB3-1066-4382-9A98-208C1CFA1F9E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>127000</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>147108</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2104C43F-67A8-4607-851F-FCF7819C4A90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>158749</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>65088</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>650874</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Chart 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{90638C8E-C4FE-4F62-8CC2-93158B382C22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3589,32 +8122,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB592E2A-C99D-4CC8-BD2C-3A533BA6C32E}">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="Z43" sqref="Z43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5"/>
+  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="11.765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="16" thickBot="1">
+    <row r="1" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="M1" t="s">
-        <v>9</v>
-      </c>
-      <c r="N1" t="s">
-        <v>14</v>
-      </c>
     </row>
-    <row r="2" spans="1:14" ht="16" thickBot="1">
+    <row r="2" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -3627,14 +8154,8 @@
       <c r="D2" s="3">
         <v>4.0000000000000001E-8</v>
       </c>
-      <c r="M2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2">
-        <v>6.9999999999999999E-4</v>
-      </c>
     </row>
-    <row r="3" spans="1:14" ht="16" thickBot="1">
+    <row r="3" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A3" s="1"/>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -3645,14 +8166,8 @@
       <c r="D3" s="3">
         <v>4.9999999999999998E-8</v>
       </c>
-      <c r="M3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N3">
-        <v>8.9999999999999998E-4</v>
-      </c>
     </row>
-    <row r="4" spans="1:14" ht="16" thickBot="1">
+    <row r="4" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A4" s="1"/>
       <c r="B4" s="1" t="s">
         <v>3</v>
@@ -3663,14 +8178,8 @@
       <c r="D4" s="3">
         <v>5.9999999999999995E-8</v>
       </c>
-      <c r="M4" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4">
-        <v>4.0000000000000002E-4</v>
-      </c>
     </row>
-    <row r="5" spans="1:14" ht="16" thickBot="1">
+    <row r="5" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A5" s="1"/>
       <c r="B5" s="1" t="s">
         <v>4</v>
@@ -3681,14 +8190,8 @@
       <c r="D5" s="3">
         <v>4.9999999999999998E-8</v>
       </c>
-      <c r="M5" t="s">
-        <v>13</v>
-      </c>
-      <c r="N5">
-        <v>6.9999999999999999E-4</v>
-      </c>
     </row>
-    <row r="6" spans="1:14" ht="16" thickBot="1">
+    <row r="6" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1"/>
       <c r="B6" s="1" t="s">
         <v>5</v>
@@ -3700,72 +8203,345 @@
         <v>5.9999999999999995E-8</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="16" thickBot="1">
+    <row r="7" spans="1:6" ht="16" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
     </row>
-    <row r="8" spans="1:14" ht="16" thickBot="1">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="9" spans="1:14" ht="16" thickBot="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="B9">
+        <v>2.9999999999999997E-4</v>
+      </c>
     </row>
-    <row r="10" spans="1:14" ht="16" thickBot="1">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>8.8999999999999995E-4</v>
+      </c>
     </row>
-    <row r="11" spans="1:14" ht="16" thickBot="1">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="B11">
+        <v>5.5999999999999995E-4</v>
+      </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>8.0000000000000007E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13">
         <v>8</v>
       </c>
+      <c r="B13">
+        <v>2.3000000000000001E-4</v>
+      </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>1</v>
-      </c>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>0</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>0</v>
+      </c>
+      <c r="F16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="C17">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="E17">
+        <v>1.2E-2</v>
+      </c>
+      <c r="F17">
+        <v>0.34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="C18">
+        <v>1.24E-2</v>
+      </c>
+      <c r="E18">
+        <v>0.43559999999999999</v>
+      </c>
+      <c r="F18">
+        <v>0.13950000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B19">
-        <v>2.9999999999999997E-4</v>
+        <v>5.3E-3</v>
+      </c>
+      <c r="C19">
+        <v>4.7500000000000001E-2</v>
+      </c>
+      <c r="E19">
+        <v>9.0999999999999998E-2</v>
+      </c>
+      <c r="F19">
+        <v>1.24E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>2</v>
-      </c>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B20">
-        <v>8.8999999999999995E-4</v>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="C20">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E20">
+        <v>0.13250000000000001</v>
+      </c>
+      <c r="F20">
+        <v>2E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>3</v>
-      </c>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B21">
-        <v>5.5999999999999995E-4</v>
+        <v>6.6000000000000003E-2</v>
+      </c>
+      <c r="C21">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E21">
+        <v>0.45</v>
+      </c>
+      <c r="F21">
+        <v>1.6639999999999999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>4</v>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>18</v>
       </c>
       <c r="B22">
-        <v>8.0000000000000007E-5</v>
+        <f>AVERAGE(B17:B21)</f>
+        <v>3.7660000000000006E-2</v>
+      </c>
+      <c r="C22">
+        <f>AVERAGE(C17:C21)</f>
+        <v>4.0779999999999997E-2</v>
+      </c>
+      <c r="E22">
+        <f>AVERAGE(E17:E21)</f>
+        <v>0.22422</v>
+      </c>
+      <c r="F22">
+        <f>AVERAGE(F17:F21)</f>
+        <v>0.10210800000000002</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>8</v>
-      </c>
-      <c r="B23">
-        <v>2.3000000000000001E-4</v>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>0</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>3.3E-3</v>
+      </c>
+      <c r="C28">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="E28">
+        <v>2.3E-2</v>
+      </c>
+      <c r="F28">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>9.7000000000000003E-3</v>
+      </c>
+      <c r="C29">
+        <v>1.89E-2</v>
+      </c>
+      <c r="E29">
+        <v>8.8999999999999999E-3</v>
+      </c>
+      <c r="F29">
+        <v>5.1999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>3.3999999999999998E-3</v>
+      </c>
+      <c r="C30">
+        <v>1.78E-2</v>
+      </c>
+      <c r="E30">
+        <v>0.113</v>
+      </c>
+      <c r="F30">
+        <v>9.8000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B31">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="C31">
+        <v>1.2E-2</v>
+      </c>
+      <c r="E31">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="F31">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B32">
+        <v>9.8000000000000004E-2</v>
+      </c>
+      <c r="C32">
+        <v>0.1</v>
+      </c>
+      <c r="E32">
+        <v>9.5999999999999992E-3</v>
+      </c>
+      <c r="F32">
+        <v>4.4999999999999997E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33">
+        <f>AVERAGE(B28:B32)</f>
+        <v>3.628E-2</v>
+      </c>
+      <c r="C33">
+        <f>AVERAGE(C28:C32)</f>
+        <v>4.9340000000000009E-2</v>
+      </c>
+      <c r="E33">
+        <f>AVERAGE(E28:E32)</f>
+        <v>3.9900000000000005E-2</v>
+      </c>
+      <c r="F33">
+        <f>AVERAGE(F28:F32)</f>
+        <v>3.85E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>10</v>
+      </c>
+      <c r="C36">
+        <f>B22</f>
+        <v>3.7660000000000006E-2</v>
+      </c>
+      <c r="D36">
+        <f>C22</f>
+        <v>4.0779999999999997E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B37" t="s">
+        <v>11</v>
+      </c>
+      <c r="C37">
+        <f>E22</f>
+        <v>0.22422</v>
+      </c>
+      <c r="D37">
+        <f>F22</f>
+        <v>0.10210800000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B38" t="s">
+        <v>12</v>
+      </c>
+      <c r="C38">
+        <f>E33</f>
+        <v>3.9900000000000005E-2</v>
+      </c>
+      <c r="D38">
+        <f>F33</f>
+        <v>3.85E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <f>B33</f>
+        <v>3.628E-2</v>
+      </c>
+      <c r="D39">
+        <f>C33</f>
+        <v>4.9340000000000009E-2</v>
       </c>
     </row>
   </sheetData>

--- a/docs/GráficasComparativas.xlsx
+++ b/docs/GráficasComparativas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dvigl\Dropbox\Tec de Monterrey\ITC\Quinto Semestre\Análisis y diseño de algoritmos\Tercer parcial\Final Project\First Attempt\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994BAB09-7482-4B31-976F-0A6F9E95C0EA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB48186E-7911-4845-96E5-449359D303FB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{582CF3D1-06BC-4A09-8E59-15D49EA646FC}"/>
   </bookViews>
@@ -905,48 +905,48 @@
           </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$9:$A$14</c:f>
+              <c:f>Sheet1!$A$9:$A$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$9:$B$14</c:f>
+              <c:f>Sheet1!$B$9:$B$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2.9999999999999997E-4</c:v>
+                  <c:v>8.8999999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.8999999999999995E-4</c:v>
+                  <c:v>5.5999999999999995E-4</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.5999999999999995E-4</c:v>
+                  <c:v>8.0000000000000007E-5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0000000000000007E-5</c:v>
+                  <c:v>2.3000000000000001E-4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3000000000000001E-4</c:v>
+                  <c:v>9.9699999999999997E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1423,7 +1423,7 @@
                   <c:v>1.24E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.7500000000000001E-2</c:v>
+                  <c:v>4.7499999999999999E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>1.2E-2</c:v>
@@ -3453,7 +3453,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>4.0779999999999997E-2</c:v>
+                  <c:v>3.2229999999999995E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0.10210800000000002</c:v>
@@ -8124,8 +8124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB592E2A-C99D-4CC8-BD2C-3A533BA6C32E}">
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="Z43" sqref="Z43"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="AE24" sqref="AE24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -8217,42 +8217,42 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B9">
-        <v>2.9999999999999997E-4</v>
+        <v>8.8999999999999995E-4</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10">
-        <v>8.8999999999999995E-4</v>
+        <v>5.5999999999999995E-4</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B11">
-        <v>5.5999999999999995E-4</v>
+        <v>8.0000000000000007E-5</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B12">
-        <v>8.0000000000000007E-5</v>
+        <v>2.3000000000000001E-4</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>2.3000000000000001E-4</v>
+        <v>9.9699999999999997E-3</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -8310,7 +8310,7 @@
         <v>5.3E-3</v>
       </c>
       <c r="C19">
-        <v>4.7500000000000001E-2</v>
+        <v>4.7499999999999999E-3</v>
       </c>
       <c r="E19">
         <v>9.0999999999999998E-2</v>
@@ -8357,7 +8357,7 @@
       </c>
       <c r="C22">
         <f>AVERAGE(C17:C21)</f>
-        <v>4.0779999999999997E-2</v>
+        <v>3.2229999999999995E-2</v>
       </c>
       <c r="E22">
         <f>AVERAGE(E17:E21)</f>
@@ -8502,7 +8502,7 @@
       </c>
       <c r="D36">
         <f>C22</f>
-        <v>4.0779999999999997E-2</v>
+        <v>3.2229999999999995E-2</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.35">
